--- a/KM5c_data/ODP_Site_982.xlsx
+++ b/KM5c_data/ODP_Site_982.xlsx
@@ -549,13 +549,13 @@
         </is>
       </c>
       <c r="P2">
-        <v>10.81863884</v>
+        <v>10.67</v>
       </c>
       <c r="Q2">
-        <v>6.14936116</v>
+        <v>6.299139543321397</v>
       </c>
       <c r="R2">
-        <v>5.793049720000001</v>
+        <v>5.942828103321398</v>
       </c>
       <c r="S2">
         <v>-1.183515151515149</v>
